--- a/Templates/Exception Report (Default).xlsx
+++ b/Templates/Exception Report (Default).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://delascasascp-my.sharepoint.com/personal/ro_delascasascp_com/Documents/DLC2P Server/AA Personal/Stefanos/Data Science/Python Projects/CIS Data to Google Earth (Real Time)/Exception Report Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://delascasascp-my.sharepoint.com/personal/ro_delascasascp_com/Documents/DLC2P Server/AA Personal/Stefanos/Data Science/Python Projects/CIS Data to Google Earth (Real Time)/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="257" documentId="8_{0DAEB379-C59D-9A41-861D-6FBFF0BCABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{344E71BF-18B4-F54C-80FC-FBCD6C21E78E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708D2F08-B559-264D-B66A-6A8C5A23643F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -693,7 +693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
